--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/77.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/77.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2177444425785838</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.646744085656491</v>
+        <v>-1.645165610945067</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02748695217557408</v>
+        <v>0.02748451249286709</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1623185326663913</v>
+        <v>-0.1597751634443519</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2311404677722894</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.697080229187832</v>
+        <v>-1.694203233355611</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01431396140535407</v>
+        <v>-0.01373758636582716</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1796158830589662</v>
+        <v>-0.1772695182155165</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2711410458277016</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.853452912133853</v>
+        <v>-1.851432854852463</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02666660886534794</v>
+        <v>0.02947651342312624</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1950145503848245</v>
+        <v>-0.1932683474872948</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3189099567330549</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.001064084558387</v>
+        <v>-1.997915064104337</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05174959669661182</v>
+        <v>0.05082739663336876</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2146326489524257</v>
+        <v>-0.2141538612211785</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3501603890345103</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.113434040280419</v>
+        <v>-2.108698616146147</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1531812350018441</v>
+        <v>0.1555568760377778</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2052203530688497</v>
+        <v>-0.2066683047554496</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3502353069039071</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.023709219444689</v>
+        <v>-2.015729627230794</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2546201923551973</v>
+        <v>0.2641599616602137</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2145869049016696</v>
+        <v>-0.2181933658632809</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3249923333951383</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.783754226798468</v>
+        <v>-1.778788252648386</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3636325347517312</v>
+        <v>0.3718743928566278</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.231578075114517</v>
+        <v>-0.235684061110385</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2879995766374924</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.476915332740055</v>
+        <v>-1.476318220397519</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4989873511770138</v>
+        <v>0.5142121911099988</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2094031890699879</v>
+        <v>-0.2119977916288741</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2471259281942595</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.009735611812699</v>
+        <v>-1.00859506014718</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5282056011966295</v>
+        <v>0.5476828080879019</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1758288855770375</v>
+        <v>-0.1787223492675303</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1981482432856276</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4878978494385651</v>
+        <v>-0.4917921929596015</v>
       </c>
       <c r="F11" t="n">
-        <v>0.492936938063673</v>
+        <v>0.5135955613058065</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1238197296293772</v>
+        <v>-0.127468275117684</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1368475429094238</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07260583423801166</v>
+        <v>0.07449048912916316</v>
       </c>
       <c r="F12" t="n">
-        <v>0.374793473215544</v>
+        <v>0.3914717541212196</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03209375905323671</v>
+        <v>-0.03281895473789015</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.06512579384151188</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5819615699624963</v>
+        <v>0.5814041024639486</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2012088287716932</v>
+        <v>0.224834716106206</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05798237609230023</v>
+        <v>0.05824769158668563</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.009586307975871377</v>
       </c>
       <c r="E14" t="n">
-        <v>1.106906268263985</v>
+        <v>1.108267001293809</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02756509802838238</v>
+        <v>-0.01013478492827638</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1921655348975497</v>
+        <v>0.1937592576258924</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.0830235422245518</v>
       </c>
       <c r="E15" t="n">
-        <v>1.7163585259323</v>
+        <v>1.71413231546217</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3335391245671666</v>
+        <v>-0.3264067121732748</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3596320650329408</v>
+        <v>0.3625182096753126</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1581743266923897</v>
       </c>
       <c r="E16" t="n">
-        <v>2.240884818649539</v>
+        <v>2.240341989247233</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5852137430171015</v>
+        <v>-0.5719443087737708</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5270924959615643</v>
+        <v>0.5314802653100898</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2379630216234799</v>
       </c>
       <c r="E17" t="n">
-        <v>2.736105032769711</v>
+        <v>2.733647052442416</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.80309387660978</v>
+        <v>-0.7886082605370136</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6447498540303251</v>
+        <v>0.6455043259074625</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3228086032159764</v>
       </c>
       <c r="E18" t="n">
-        <v>3.191713338617803</v>
+        <v>3.187352405779055</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.111477089821719</v>
+        <v>-1.105759083477206</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8178191155023238</v>
+        <v>0.8214883982936402</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4094241200845972</v>
       </c>
       <c r="E19" t="n">
-        <v>3.576645256285684</v>
+        <v>3.565086039619955</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.451218764707983</v>
+        <v>-1.449514036416472</v>
       </c>
       <c r="G19" t="n">
-        <v>1.013959236492995</v>
+        <v>1.021741214407623</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4924295374371702</v>
       </c>
       <c r="E20" t="n">
-        <v>3.944653095015159</v>
+        <v>3.9374096770581</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.697291261741987</v>
+        <v>-1.701446651312671</v>
       </c>
       <c r="G20" t="n">
-        <v>1.184187487452701</v>
+        <v>1.196197435498547</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5668395214109195</v>
       </c>
       <c r="E21" t="n">
-        <v>4.251089441426918</v>
+        <v>4.241991864612545</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.9642931867986</v>
+        <v>-1.975363857002254</v>
       </c>
       <c r="G21" t="n">
-        <v>1.262425062262558</v>
+        <v>1.275869543740115</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6287040512996761</v>
       </c>
       <c r="E22" t="n">
-        <v>4.545152936990167</v>
+        <v>4.532399495639365</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.18295889822293</v>
+        <v>-2.196932180927228</v>
       </c>
       <c r="G22" t="n">
-        <v>1.407803925010195</v>
+        <v>1.424146139622982</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6773344321144807</v>
       </c>
       <c r="E23" t="n">
-        <v>4.705129031294415</v>
+        <v>4.691999878806737</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.374864339954939</v>
+        <v>-2.393893865069479</v>
       </c>
       <c r="G23" t="n">
-        <v>1.511628892050986</v>
+        <v>1.529730117895515</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7123640666349175</v>
       </c>
       <c r="E24" t="n">
-        <v>4.868308428992944</v>
+        <v>4.857255446488915</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.599234029548217</v>
+        <v>-2.618772228507165</v>
       </c>
       <c r="G24" t="n">
-        <v>1.648701855022668</v>
+        <v>1.663957190989491</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7330082636179618</v>
       </c>
       <c r="E25" t="n">
-        <v>4.971739997197234</v>
+        <v>4.953986426138451</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.736804077871449</v>
+        <v>-2.759638288167543</v>
       </c>
       <c r="G25" t="n">
-        <v>1.687637361264234</v>
+        <v>1.709309672671123</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.7378594407297736</v>
       </c>
       <c r="E26" t="n">
-        <v>4.966415389689223</v>
+        <v>4.944833956463169</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.838011875288315</v>
+        <v>-2.859051089032739</v>
       </c>
       <c r="G26" t="n">
-        <v>1.748814234904094</v>
+        <v>1.769078239468372</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7273038097009539</v>
       </c>
       <c r="E27" t="n">
-        <v>4.944130108002202</v>
+        <v>4.920484703206033</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.888744467259541</v>
+        <v>-2.912847312563271</v>
       </c>
       <c r="G27" t="n">
-        <v>1.76641898531775</v>
+        <v>1.784762959591625</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7046525728996128</v>
       </c>
       <c r="E28" t="n">
-        <v>4.878203782052505</v>
+        <v>4.854125333575845</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.00085246205091</v>
+        <v>-3.030957231774179</v>
       </c>
       <c r="G28" t="n">
-        <v>1.785980361262414</v>
+        <v>1.80421150021109</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.6737153209728166</v>
       </c>
       <c r="E29" t="n">
-        <v>4.81657007782576</v>
+        <v>4.794377504081605</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.992929592459952</v>
+        <v>-3.030138413265644</v>
       </c>
       <c r="G29" t="n">
-        <v>1.75155155890134</v>
+        <v>1.77081346379372</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.6371384103223255</v>
       </c>
       <c r="E30" t="n">
-        <v>4.75175258766639</v>
+        <v>4.730865244170476</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.960286332880058</v>
+        <v>-2.988099630620785</v>
       </c>
       <c r="G30" t="n">
-        <v>1.735276435562995</v>
+        <v>1.751978503375063</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.5962124596063992</v>
       </c>
       <c r="E31" t="n">
-        <v>4.614226453631884</v>
+        <v>4.592398612452425</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.952637317672961</v>
+        <v>-2.981070294821263</v>
       </c>
       <c r="G31" t="n">
-        <v>1.706622972090047</v>
+        <v>1.723805657395394</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.5505855602320556</v>
       </c>
       <c r="E32" t="n">
-        <v>4.522479745752735</v>
+        <v>4.501571664953811</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.900777592291103</v>
+        <v>-2.931620670993576</v>
       </c>
       <c r="G32" t="n">
-        <v>1.672485101891782</v>
+        <v>1.689361607017401</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.5001629197835816</v>
       </c>
       <c r="E33" t="n">
-        <v>4.259546601530707</v>
+        <v>4.235719440372868</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.844661840426899</v>
+        <v>-2.879513927737636</v>
       </c>
       <c r="G33" t="n">
-        <v>1.589565775967207</v>
+        <v>1.607418764096299</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.4469643915684434</v>
       </c>
       <c r="E34" t="n">
-        <v>4.132237858673085</v>
+        <v>4.10486705838334</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.743147252909628</v>
+        <v>-2.768306480825486</v>
       </c>
       <c r="G34" t="n">
-        <v>1.500204467854819</v>
+        <v>1.514510157327944</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.3940161246618443</v>
       </c>
       <c r="E35" t="n">
-        <v>3.924748943650163</v>
+        <v>3.899372583973384</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.683304885710493</v>
+        <v>-2.704376425250785</v>
       </c>
       <c r="G35" t="n">
-        <v>1.441042162210257</v>
+        <v>1.452062818918417</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.3428470079687703</v>
       </c>
       <c r="E36" t="n">
-        <v>3.771775958556336</v>
+        <v>3.746724076679587</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.703732958936815</v>
+        <v>-2.721063245045935</v>
       </c>
       <c r="G36" t="n">
-        <v>1.385282604021273</v>
+        <v>1.395371301935362</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.2913883877121851</v>
       </c>
       <c r="E37" t="n">
-        <v>3.538822855279183</v>
+        <v>3.51542019891236</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.664941393974962</v>
+        <v>-2.678196800042728</v>
       </c>
       <c r="G37" t="n">
-        <v>1.300900688313856</v>
+        <v>1.308816238856692</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.2381952020991534</v>
       </c>
       <c r="E38" t="n">
-        <v>3.347804238211166</v>
+        <v>3.322488870602061</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.62641026514208</v>
+        <v>-2.636189733273059</v>
       </c>
       <c r="G38" t="n">
-        <v>1.250307158256927</v>
+        <v>1.256452109075164</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.1841985975867035</v>
       </c>
       <c r="E39" t="n">
-        <v>3.127200808796808</v>
+        <v>3.107489392365664</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.609561816367592</v>
+        <v>-2.616414885091533</v>
       </c>
       <c r="G39" t="n">
-        <v>1.162718279631169</v>
+        <v>1.17266242634487</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.1292252471953332</v>
       </c>
       <c r="E40" t="n">
-        <v>2.93018789131771</v>
+        <v>2.909900709767717</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.587872427181754</v>
+        <v>-2.60097962252507</v>
       </c>
       <c r="G40" t="n">
-        <v>1.076143699090843</v>
+        <v>1.083546306344534</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.07395991786769593</v>
       </c>
       <c r="E41" t="n">
-        <v>2.71808675613722</v>
+        <v>2.69868395956851</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.556074822620171</v>
+        <v>-2.56420933468596</v>
       </c>
       <c r="G41" t="n">
-        <v>1.01262838957633</v>
+        <v>1.019565627353663</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.01969474999531287</v>
       </c>
       <c r="E42" t="n">
-        <v>2.516400626432879</v>
+        <v>2.497035644946128</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.502521347518984</v>
+        <v>-2.514730129705451</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9543925534397489</v>
+        <v>0.9633736354048641</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.03240268924865899</v>
       </c>
       <c r="E43" t="n">
-        <v>2.304906972246429</v>
+        <v>2.285065032790461</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.444393467342188</v>
+        <v>-2.452970171898619</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8784562093432623</v>
+        <v>0.886849937696669</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.08078221386381541</v>
       </c>
       <c r="E44" t="n">
-        <v>2.123587313780059</v>
+        <v>2.102846961167242</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.411532771041033</v>
+        <v>-2.42020584306439</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8221105173839232</v>
+        <v>0.829550329798896</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.1254208349771934</v>
       </c>
       <c r="E45" t="n">
-        <v>1.958788576684765</v>
+        <v>1.939222931295364</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.386088100248457</v>
+        <v>-2.396278044994887</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7501813521336712</v>
+        <v>0.757003924823775</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.1662867138826834</v>
       </c>
       <c r="E46" t="n">
-        <v>1.830552144477809</v>
+        <v>1.81392509690898</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.28961816664857</v>
+        <v>-2.296945753659021</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6781521598924325</v>
+        <v>0.6824710082044856</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.2038414818840375</v>
       </c>
       <c r="E47" t="n">
-        <v>1.646423801295014</v>
+        <v>1.631688727665458</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.17920788606093</v>
+        <v>-2.187011821119921</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5864249694749386</v>
+        <v>0.5907602856452638</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.2386753302603106</v>
       </c>
       <c r="E48" t="n">
-        <v>1.530275386980528</v>
+        <v>1.517019370992086</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.15692626389797</v>
+        <v>-2.170528714830805</v>
       </c>
       <c r="G48" t="n">
-        <v>0.542504581542311</v>
+        <v>0.5469850588337022</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.2717190598271218</v>
       </c>
       <c r="E49" t="n">
-        <v>1.403649145360187</v>
+        <v>1.390568176605971</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.054299790986988</v>
+        <v>-2.068472517752582</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4807757296899935</v>
+        <v>0.4862692852254633</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.3035172205119633</v>
       </c>
       <c r="E50" t="n">
-        <v>1.298811709995993</v>
+        <v>1.287976469173564</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.984356527460228</v>
+        <v>-2.003198197006329</v>
       </c>
       <c r="G50" t="n">
-        <v>0.408470243382188</v>
+        <v>0.4093918335247543</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.3352109162307368</v>
       </c>
       <c r="E51" t="n">
-        <v>1.207085129499176</v>
+        <v>1.193866318672016</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.960401282960271</v>
+        <v>-1.980650649428306</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3522483653202287</v>
+        <v>0.3535468864410254</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.3664403087650819</v>
       </c>
       <c r="E52" t="n">
-        <v>1.116102652227992</v>
+        <v>1.106987997634669</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.918087426090198</v>
+        <v>-1.938004995710082</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2871301842672224</v>
+        <v>0.2888702879579845</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3973702174842922</v>
       </c>
       <c r="E53" t="n">
-        <v>1.063713515698717</v>
+        <v>1.051988400608913</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.913728323013479</v>
+        <v>-1.935635453880916</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2410445779321391</v>
+        <v>0.2399448909519623</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.4269122040478927</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9712916256304074</v>
+        <v>0.9582429826720594</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.836120186342026</v>
+        <v>-1.857772980287259</v>
       </c>
       <c r="G54" t="n">
-        <v>0.192934644870929</v>
+        <v>0.1937562080225086</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.4550927095516807</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9282763599820738</v>
+        <v>0.9155954991918049</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.86435036486531</v>
+        <v>-1.886561846150444</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1637224940580808</v>
+        <v>0.1620354534661957</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.4828556652452958</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8929113293821912</v>
+        <v>0.8825237703364951</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.829616602165862</v>
+        <v>-1.852728326369876</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1255414596936524</v>
+        <v>0.1250559628349609</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.5106917001909196</v>
       </c>
       <c r="E57" t="n">
-        <v>0.822880847198656</v>
+        <v>0.8125426917277764</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.810444355612963</v>
+        <v>-1.832444804343943</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04206649603255965</v>
+        <v>0.0405593820403152</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.5398124024675747</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7486053171049541</v>
+        <v>0.7388386573081875</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.823791249782241</v>
+        <v>-1.845183607598502</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0244019733925824</v>
+        <v>0.0220781756141723</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.5697057093624454</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6615208428788665</v>
+        <v>0.6490552840874897</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.823804668037129</v>
+        <v>-1.849856209903069</v>
       </c>
       <c r="G59" t="n">
-        <v>0.005568232815279119</v>
+        <v>0.005068097860345711</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.6005772574106164</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5764564259341683</v>
+        <v>0.5645044203526134</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.79795927935993</v>
+        <v>-1.822204846102019</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.02848180880553471</v>
+        <v>-0.03110019827081412</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.6325396207257915</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5446289352594245</v>
+        <v>0.5305446469919582</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.751710214283479</v>
+        <v>-1.775310484949568</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.05207841994756358</v>
+        <v>-0.05487734593316042</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6652942366946507</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5325787324489131</v>
+        <v>0.5248120025512033</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.704988460682547</v>
+        <v>-1.719564954936149</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1012685225272944</v>
+        <v>-0.1083582404738139</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.699241914420216</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4883607032260324</v>
+        <v>0.4816210797479663</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.754303597001011</v>
+        <v>-1.771014813623232</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1151612957022617</v>
+        <v>-0.1223864160390192</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.7337691001365767</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4736841819814439</v>
+        <v>0.4623439268386672</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.709658623304407</v>
+        <v>-1.722365710683776</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1305154388187173</v>
+        <v>-0.1387780342266233</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7684707851618974</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4522790158309707</v>
+        <v>0.4421427441040948</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.724898711254311</v>
+        <v>-1.73685559620128</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1445716707350531</v>
+        <v>-0.1540077535250223</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.8031400388368457</v>
       </c>
       <c r="E66" t="n">
-        <v>0.461378422407375</v>
+        <v>0.4522204634460029</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.714458699030414</v>
+        <v>-1.722657252767262</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.1689245835162495</v>
+        <v>-0.177258539643335</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.8361899496612311</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4218464137439497</v>
+        <v>0.4131568738623201</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.692105106227598</v>
+        <v>-1.700943466754354</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.1837889603292764</v>
+        <v>-0.1956171520134515</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.8678840226022045</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3975038696142579</v>
+        <v>0.3899548813981472</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.649826624756776</v>
+        <v>-1.653603863507877</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2277819288224371</v>
+        <v>-0.2404786475503014</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8965072336471493</v>
       </c>
       <c r="E69" t="n">
-        <v>0.327266624321305</v>
+        <v>0.3216516945711624</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.66784429146859</v>
+        <v>-1.673626339484162</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2160866998457931</v>
+        <v>-0.2273470553799158</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.920328794229322</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3556761195235528</v>
+        <v>0.3544959230140454</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.639052985922699</v>
+        <v>-1.641772012299641</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2462381285008333</v>
+        <v>-0.2560450430622654</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.9381179678856905</v>
       </c>
       <c r="E71" t="n">
-        <v>0.379889360469774</v>
+        <v>0.3815312669315797</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.615231923971626</v>
+        <v>-1.617099501083829</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2794934434798445</v>
+        <v>-0.2882146992366649</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.9482559153431592</v>
       </c>
       <c r="E72" t="n">
-        <v>0.381860014176347</v>
+        <v>0.3856140759417312</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.608431308425885</v>
+        <v>-1.613389963527847</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2755808023385057</v>
+        <v>-0.2871601463865676</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.9510514388257967</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4404831499426633</v>
+        <v>0.4430387175782377</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.600946361880833</v>
+        <v>-1.606249012244481</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2915460859730628</v>
+        <v>-0.3037627971283264</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.9457520586822157</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5135296898727177</v>
+        <v>0.5246448842857743</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.564971410604203</v>
+        <v>-1.570929725695354</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.3160825848779605</v>
+        <v>-0.3256193045795931</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.9325029499894949</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5664427482633188</v>
+        <v>0.5726285637668975</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.5536396943509</v>
+        <v>-1.560051790425553</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.292826309473557</v>
+        <v>-0.3033145054309166</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.9111944449215869</v>
       </c>
       <c r="E76" t="n">
-        <v>0.6316786440069375</v>
+        <v>0.6449749147600452</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.563800362904846</v>
+        <v>-1.576457436788722</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3035249280643947</v>
+        <v>-0.3131226398337021</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.883023358771607</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6517444243512719</v>
+        <v>0.6688673374302968</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.509846169919036</v>
+        <v>-1.517562886321253</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2970286629363511</v>
+        <v>-0.3050125245949832</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.8504281217590268</v>
       </c>
       <c r="E78" t="n">
-        <v>0.77350227912981</v>
+        <v>0.789867060807637</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.541560215347905</v>
+        <v>-1.552163076392493</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.248877865189799</v>
+        <v>-0.2547050473354499</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.8142169722402726</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8950936255635957</v>
+        <v>0.9109552226831058</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.488558108538499</v>
+        <v>-1.493399048949848</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2375565175880015</v>
+        <v>-0.2434849465659926</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.7741046676002032</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9415403049393138</v>
+        <v>0.9549896657822853</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.44900048320665</v>
+        <v>-1.454975266156074</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2337530522478006</v>
+        <v>-0.2370271064405842</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.7291135367788271</v>
       </c>
       <c r="E81" t="n">
-        <v>1.02591856112267</v>
+        <v>1.047209062185915</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.350513541928757</v>
+        <v>-1.353299659580143</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.221848620479032</v>
+        <v>-0.2275904137299382</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.6768966894719685</v>
       </c>
       <c r="E82" t="n">
-        <v>1.14906032591675</v>
+        <v>1.168851641956548</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.316525102296295</v>
+        <v>-1.3191611794612</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1686287719880267</v>
+        <v>-0.174726148993477</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.6165289736735738</v>
       </c>
       <c r="E83" t="n">
-        <v>1.237429903008746</v>
+        <v>1.254890712142689</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.209546845356716</v>
+        <v>-1.21149676176028</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1594354376274033</v>
+        <v>-0.163902496663906</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5467104702224805</v>
       </c>
       <c r="E84" t="n">
-        <v>1.373527602818307</v>
+        <v>1.391996610830915</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.131634358267566</v>
+        <v>-1.136488716933803</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1179211867645467</v>
+        <v>-0.1201504468380608</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4684254828934273</v>
       </c>
       <c r="E85" t="n">
-        <v>1.496251571948814</v>
+        <v>1.516887018205231</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9780587715451117</v>
+        <v>-0.9837706786828572</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.09149332384105333</v>
+        <v>-0.09137072978502697</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3849400206385314</v>
       </c>
       <c r="E86" t="n">
-        <v>1.584297891082134</v>
+        <v>1.598141870602961</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.884048038113873</v>
+        <v>-0.8869049065637609</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.07517367629330554</v>
+        <v>-0.07577749776328611</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.300250804187485</v>
       </c>
       <c r="E87" t="n">
-        <v>1.705036568409826</v>
+        <v>1.719436185667171</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7525125449663869</v>
+        <v>-0.7575035258642162</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01401388043239403</v>
+        <v>-0.01366561572597089</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2188705132612084</v>
       </c>
       <c r="E88" t="n">
-        <v>1.832630144223489</v>
+        <v>1.847636632554198</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.5908744168180002</v>
+        <v>-0.5965119136331826</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.0007493255544772653</v>
+        <v>0.001431140864897042</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1441515654590181</v>
       </c>
       <c r="E89" t="n">
-        <v>1.912403499297398</v>
+        <v>1.922927680574686</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.4877947728441947</v>
+        <v>-0.492797952155559</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03585628370191093</v>
+        <v>0.03931819346313291</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.07894238402193404</v>
       </c>
       <c r="E90" t="n">
-        <v>2.026055508281954</v>
+        <v>2.038444826988738</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.3496953133735459</v>
+        <v>-0.3587672735194966</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05520540725106632</v>
+        <v>0.05994998019548946</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.02682085939786978</v>
       </c>
       <c r="E91" t="n">
-        <v>2.046091402513128</v>
+        <v>2.059823156629434</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2272311704513336</v>
+        <v>-0.2323740215976733</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07222463381504413</v>
+        <v>0.07815794215844923</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.008984633412880843</v>
       </c>
       <c r="E92" t="n">
-        <v>2.052919464489323</v>
+        <v>2.06283982429663</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1220936541141801</v>
+        <v>-0.1328721723136718</v>
       </c>
       <c r="G92" t="n">
-        <v>0.08179184955051416</v>
+        <v>0.08560019425612904</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.02559162676814291</v>
       </c>
       <c r="E93" t="n">
-        <v>2.041686555385654</v>
+        <v>2.051733168773048</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08370517071347282</v>
+        <v>0.07736443535800001</v>
       </c>
       <c r="G93" t="n">
-        <v>0.06450730749215094</v>
+        <v>0.06698175567771782</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.02292084019276587</v>
       </c>
       <c r="E94" t="n">
-        <v>1.955169917309618</v>
+        <v>1.965627007312464</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2155870988053519</v>
+        <v>0.2130455593453427</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04701112295895616</v>
+        <v>0.05389712739944173</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.005332611665115203</v>
       </c>
       <c r="E95" t="n">
-        <v>1.848175802432444</v>
+        <v>1.859668537744408</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3182379685434035</v>
+        <v>0.3176567141384626</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0102054597205946</v>
+        <v>0.01248290352757185</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.01855576954236362</v>
       </c>
       <c r="E96" t="n">
-        <v>1.737468490475227</v>
+        <v>1.752987922095081</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3395565259577784</v>
+        <v>0.3425792928317418</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.002990784041526378</v>
+        <v>-0.0003297001288746015</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.04017528829598409</v>
       </c>
       <c r="E97" t="n">
-        <v>1.623524329486508</v>
+        <v>1.636652262132834</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3795313370325229</v>
+        <v>0.3836470817592187</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01066290022815565</v>
+        <v>0.01220416977829799</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.05594679684915623</v>
       </c>
       <c r="E98" t="n">
-        <v>1.484299566367259</v>
+        <v>1.49292140505377</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3748355577422396</v>
+        <v>0.3794367993276269</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.04332727807758244</v>
+        <v>-0.04221966212860797</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.06654189157859985</v>
       </c>
       <c r="E99" t="n">
-        <v>1.341837954216508</v>
+        <v>1.348091470915206</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3430184357190004</v>
+        <v>0.3459387359192701</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.03227246581152389</v>
+        <v>-0.0291618703601088</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.07677978054627174</v>
       </c>
       <c r="E100" t="n">
-        <v>1.230512792613746</v>
+        <v>1.234172926594911</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3397907354976497</v>
+        <v>0.3428269206265015</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.03919994485802834</v>
+        <v>-0.03607227162766429</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.08785054203101245</v>
       </c>
       <c r="E101" t="n">
-        <v>1.122262851063147</v>
+        <v>1.127112940284648</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2890270375719088</v>
+        <v>0.2937588021821202</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1039771802527326</v>
+        <v>-0.1034178829921546</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1018870002722021</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9978353734824829</v>
+        <v>1.001396700314015</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2964955162586888</v>
+        <v>0.2996329482198808</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1177394304028758</v>
+        <v>-0.1142354361149582</v>
       </c>
     </row>
   </sheetData>
